--- a/Re-Imagination/testdata/LC_TestScenarios.xlsx
+++ b/Re-Imagination/testdata/LC_TestScenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mayur\Lead Creation\Test Data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>Product Type</t>
   </si>
@@ -304,12 +304,19 @@
   </si>
   <si>
     <t>6. Demat</t>
+  </si>
+  <si>
+    <t>4085390</t>
+  </si>
+  <si>
+    <t>4085417</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -815,16 +822,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" style="3" width="9.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="20.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="11.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="21.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="24.85546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="74.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="13.140625"/>
+    <col min="8" max="8" customWidth="true" style="3" width="20.7109375"/>
+    <col min="9" max="9" customWidth="true" style="3" width="19.5703125"/>
+    <col min="10" max="16384" style="3" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -918,7 +925,9 @@
       <c r="G4" s="5">
         <v>435</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" t="s" s="3">
+        <v>90</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1093,7 +1102,9 @@
       <c r="G11" s="5">
         <v>765</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" t="s" s="3">
+        <v>91</v>
+      </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">

--- a/Re-Imagination/testdata/LC_TestScenarios.xlsx
+++ b/Re-Imagination/testdata/LC_TestScenarios.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t>Product Type</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>4085417</t>
+  </si>
+  <si>
+    <t>4085418</t>
+  </si>
+  <si>
+    <t>4085419</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1135,9 @@
       <c r="G12" s="5">
         <v>307</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" t="s" s="3">
+        <v>93</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1719,7 +1727,9 @@
       <c r="G36" s="5">
         <v>923</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" t="s" s="3">
+        <v>92</v>
+      </c>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">

--- a/Re-Imagination/testdata/LC_TestScenarios.xlsx
+++ b/Re-Imagination/testdata/LC_TestScenarios.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="96">
   <si>
     <t>Product Type</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>4085419</t>
+  </si>
+  <si>
+    <t>4085434</t>
+  </si>
+  <si>
+    <t>4085435</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1925,9 @@
       <c r="G44" s="5">
         <v>216</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" t="s" s="3">
+        <v>94</v>
+      </c>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1969,7 +1977,9 @@
       <c r="G46" s="5">
         <v>470</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="H46" t="s" s="3">
+        <v>95</v>
+      </c>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">

--- a/Re-Imagination/testdata/LC_TestScenarios.xlsx
+++ b/Re-Imagination/testdata/LC_TestScenarios.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="97">
   <si>
     <t>Product Type</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>4085435</t>
+  </si>
+  <si>
+    <t>4085436</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2122,9 @@
       <c r="G52" s="5">
         <v>279</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" t="s" s="3">
+        <v>96</v>
+      </c>
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">

--- a/Re-Imagination/testdata/LC_TestScenarios.xlsx
+++ b/Re-Imagination/testdata/LC_TestScenarios.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
   <si>
     <t>Product Type</t>
   </si>
@@ -325,6 +325,24 @@
   </si>
   <si>
     <t>4085436</t>
+  </si>
+  <si>
+    <t>4085441</t>
+  </si>
+  <si>
+    <t>4085442</t>
+  </si>
+  <si>
+    <t>4085443</t>
+  </si>
+  <si>
+    <t>4085444</t>
+  </si>
+  <si>
+    <t>4085489</t>
+  </si>
+  <si>
+    <t>4085490</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1163,7 @@
         <v>307</v>
       </c>
       <c r="H12" t="s" s="3">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1196,7 +1214,9 @@
       <c r="G14" s="5">
         <v>322</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" t="s" s="3">
+        <v>102</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1737,7 +1757,7 @@
         <v>923</v>
       </c>
       <c r="H36" t="s" s="3">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -2324,7 +2344,9 @@
       <c r="G60" s="5">
         <v>1009</v>
       </c>
-      <c r="H60" s="5"/>
+      <c r="H60" t="s" s="3">
+        <v>98</v>
+      </c>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2383,7 +2405,9 @@
         <v>83</v>
       </c>
       <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="H63" t="s" s="3">
+        <v>99</v>
+      </c>
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2474,7 +2498,9 @@
         <v>87</v>
       </c>
       <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
+      <c r="H68" t="s" s="3">
+        <v>100</v>
+      </c>
       <c r="I68" s="8"/>
     </row>
   </sheetData>

--- a/Re-Imagination/testdata/LC_TestScenarios.xlsx
+++ b/Re-Imagination/testdata/LC_TestScenarios.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="104">
   <si>
     <t>Product Type</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>4085490</t>
+  </si>
+  <si>
+    <t>4086165</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1760,7 @@
         <v>923</v>
       </c>
       <c r="H36" t="s" s="3">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I36" s="5"/>
     </row>
